--- a/VendingMachine.xlsx
+++ b/VendingMachine.xlsx
@@ -358,7 +358,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -392,13 +392,61 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44211</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44220</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B9" s="2">
+        <v>12</v>
+      </c>
+    </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="2">
         <f>SUM(B2:B25)</f>
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
